--- a/website/derivative/data/option list.xlsx
+++ b/website/derivative/data/option list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="18315" windowHeight="11655"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18315" windowHeight="11625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="306">
   <si>
     <t>行权价</t>
   </si>
@@ -145,10 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20170926</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>华夏上证50ETF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,14 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10000885.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购9月2.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>欧式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,735 +173,1067 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10000843.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购9月2.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000844.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购9月2.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000845.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购9月2.35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000846.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购9月2.40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000847.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购9月2.45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000855.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购9月2.50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000913.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购9月2.55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000921.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购9月2.60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000929.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购9月2.65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000949.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购9月2.70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000957.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购9月2.75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000965.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购9月2.80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000981.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购9月2.85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001003.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购9月2.90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000886.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽9月2.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>认沽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10000848.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽9月2.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000849.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽9月2.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000850.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽9月2.35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000851.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽9月2.40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000852.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽9月2.45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000856.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽9月2.50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000914.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽9月2.55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000922.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽9月2.60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000930.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽9月2.65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000950.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽9月2.70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000958.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽9月2.75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000966.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽9月2.80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000982.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽9月2.85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001004.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽9月2.90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000991.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购10月2.60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000992.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购10月2.65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000993.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购10月2.70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000994.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购10月2.75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000995.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购10月2.80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001001.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购10月2.85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001005.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购10月2.90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000996.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽10月2.60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000997.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽10月2.65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000998.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽10月2.70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000999.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽10月2.75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001000.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽10月2.80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001002.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽10月2.85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001006.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽10月2.90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000897.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购12月2.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000887.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购12月2.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000888.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购12月2.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000889.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购12月2.35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000890.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购12月2.40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000891.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购12月2.45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000899.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购12月2.50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000915.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购12月2.55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000923.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购12月2.60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000931.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购12月2.65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000951.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购12月2.70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000959.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购12月2.75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000967.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购12月2.80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000983.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购12月2.85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001007.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购12月2.90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000898.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽12月2.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000892.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽12月2.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000893.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽12月2.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000894.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽12月2.35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000895.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽12月2.40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000896.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽12月2.45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000900.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽12月2.50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000916.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽12月2.55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000924.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽12月2.60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000932.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽12月2.65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000952.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽12月2.70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000960.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽12月2.75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000968.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽12月2.80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000984.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽12月2.85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001008.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽12月2.90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000989.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购3月2.50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000987.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购3月2.55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000969.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购3月2.60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000970.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购3月2.65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000971.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购3月2.70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000972.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购3月2.75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000973.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购3月2.80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000985.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购3月2.85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001009.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF购3月2.90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000990.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽3月2.50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000988.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽3月2.55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000974.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽3月2.60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000975.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽3月2.65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000976.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽3月2.70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000977.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽3月2.75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000978.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽3月2.80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000986.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽3月2.85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001010.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF沽3月2.90</t>
+    <t>20160126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000537.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年1月1.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000531.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年1月2.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000525.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年1月2.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000515.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年1月2.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000516.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年1月2.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000489.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年1月2.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000490.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年1月2.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000491.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年1月2.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000479.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年1月2.35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000480.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年1月2.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000481.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年1月2.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000482.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年1月2.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000483.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年1月2.55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000495.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年1月2.60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000538.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年1月1.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000532.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年1月2.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000526.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年1月2.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000517.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年1月2.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000518.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年1月2.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000492.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年1月2.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000493.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年1月2.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000494.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年1月2.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000484.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年1月2.35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000485.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年1月2.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000486.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年1月2.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000487.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年1月2.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000488.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年1月2.55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000496.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年1月2.60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000539.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年2月1.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000533.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年2月2.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000527.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年2月2.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000519.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年2月2.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000520.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年2月2.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000511.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年2月2.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000512.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年2月2.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000507.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年2月2.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000508.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年2月2.35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000497.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年2月2.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000498.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年2月2.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000499.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年2月2.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000500.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年2月2.55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000501.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年2月2.60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000540.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年2月1.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000534.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年2月2.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000528.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年2月2.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000521.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年2月2.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000522.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年2月2.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000513.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年2月2.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000514.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年2月2.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000509.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年2月2.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000510.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年2月2.35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000502.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年2月2.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000503.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年2月2.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000504.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年2月2.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000505.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年2月2.55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000506.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年2月2.60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000399.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年3月1.80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000400.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年3月1.85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000401.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年3月1.90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000373.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年3月1.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000374.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年3月2.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000375.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年3月2.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000376.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年3月2.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000345.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年3月2.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000346.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年3月2.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000333.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年3月2.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000327.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年3月2.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000321.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年3月2.35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000307.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年3月2.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000308.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年3月2.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000309.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年3月2.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000310.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年3月2.55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000311.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年3月2.60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000287.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年3月2.65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000288.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年3月2.70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000289.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年3月2.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000290.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年3月2.80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000291.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年3月2.85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000297.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年3月2.90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000402.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年3月1.80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000403.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年3月1.85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000404.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年3月1.90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000377.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年3月1.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000378.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年3月2.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000379.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年3月2.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000380.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年3月2.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000347.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年3月2.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000348.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年3月2.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000334.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年3月2.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000328.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年3月2.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000322.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年3月2.35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000312.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年3月2.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000313.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年3月2.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000314.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年3月2.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000315.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年3月2.55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000316.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年3月2.60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000292.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年3月2.65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000293.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年3月2.70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000294.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年3月2.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000295.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年3月2.80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000296.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年3月2.85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000298.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年3月2.90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000541.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年6月1.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000535.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年6月2.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000529.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年6月2.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000523.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年6月2.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000459.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年6月2.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000449.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年6月2.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000450.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年6月2.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000451.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年6月2.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000452.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年6月2.35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000453.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年6月2.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000463.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年6月2.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000464.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年6月2.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000469.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年6月2.55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000473.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年6月2.60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000477.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF购2016年6月2.65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000542.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年6月1.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000536.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年6月2.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000530.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年6月2.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000524.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年6月2.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000460.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年6月2.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000454.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年6月2.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000455.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年6月2.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000456.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年6月2.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000457.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年6月2.35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000458.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年6月2.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000465.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年6月2.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000466.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年6月2.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000470.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年6月2.55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000474.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年6月2.60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000478.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF沽2016年6月2.65</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1309,10 +1629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N99"/>
+  <dimension ref="A1:N139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1342,7 +1662,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
@@ -1459,44 +1779,44 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="str">
-        <f>[1]!wset("optionchain","date="&amp;B2,"us_code="&amp;B3,"option_var="&amp;B4,"call_put="&amp;B5,"field=us_code,us_name,option_var,option_code,option_name,exe_type,strike_price,month,call_put,first_tradedate,last_tradedate,expiredate,settle_method,multiplier","cols=14;rows=92")</f>
+        <f>[1]!wset("optionchain","date="&amp;B2,"us_code="&amp;B3,"option_var="&amp;B4,"call_put="&amp;B5,"field=us_code,us_name,option_var,option_code,option_name,exe_type,strike_price,month,call_put,first_tradedate,last_tradedate,expiredate,settle_method,multiplier","cols=14;rows=132")</f>
         <v>510050.SH</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H8" s="2">
+        <v>201601</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="4">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H8" s="2">
-        <v>201709</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="J8" s="3">
-        <v>42845</v>
+        <v>42387</v>
       </c>
       <c r="K8" s="3">
-        <v>43005</v>
+        <v>42396</v>
       </c>
       <c r="L8" s="2">
         <v>1</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N8" s="2">
         <v>10000</v>
@@ -1504,43 +1824,43 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G9" s="4">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="H9" s="2">
-        <v>201709</v>
+        <v>201601</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J9" s="3">
-        <v>42761</v>
+        <v>42383</v>
       </c>
       <c r="K9" s="3">
-        <v>43005</v>
+        <v>42396</v>
       </c>
       <c r="L9" s="2">
         <v>1</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N9" s="2">
         <v>10000</v>
@@ -1548,43 +1868,43 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G10" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H10" s="2">
-        <v>201709</v>
+        <v>201601</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J10" s="3">
-        <v>42761</v>
+        <v>42381</v>
       </c>
       <c r="K10" s="3">
-        <v>43005</v>
+        <v>42396</v>
       </c>
       <c r="L10" s="2">
         <v>1</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N10" s="2">
         <v>10000</v>
@@ -1592,43 +1912,43 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G11" s="4">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="H11" s="2">
-        <v>201709</v>
+        <v>201601</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J11" s="3">
-        <v>42761</v>
+        <v>42377</v>
       </c>
       <c r="K11" s="3">
-        <v>43005</v>
+        <v>42396</v>
       </c>
       <c r="L11" s="2">
         <v>1</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N11" s="2">
         <v>10000</v>
@@ -1636,43 +1956,43 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G12" s="4">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="H12" s="2">
-        <v>201709</v>
+        <v>201601</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J12" s="3">
-        <v>42761</v>
+        <v>42377</v>
       </c>
       <c r="K12" s="3">
-        <v>43005</v>
+        <v>42396</v>
       </c>
       <c r="L12" s="2">
         <v>1</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N12" s="2">
         <v>10000</v>
@@ -1680,43 +2000,43 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G13" s="4">
-        <v>2.4500000000000002</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H13" s="2">
-        <v>201709</v>
+        <v>201601</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J13" s="3">
-        <v>42761</v>
+        <v>42338</v>
       </c>
       <c r="K13" s="3">
-        <v>43005</v>
+        <v>42396</v>
       </c>
       <c r="L13" s="2">
         <v>1</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N13" s="2">
         <v>10000</v>
@@ -1724,43 +2044,43 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G14" s="4">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="H14" s="2">
-        <v>201709</v>
+        <v>201601</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J14" s="3">
-        <v>42780</v>
+        <v>42338</v>
       </c>
       <c r="K14" s="3">
-        <v>43005</v>
+        <v>42396</v>
       </c>
       <c r="L14" s="2">
         <v>1</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N14" s="2">
         <v>10000</v>
@@ -1768,43 +2088,43 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G15" s="4">
-        <v>2.5499999999999998</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H15" s="2">
-        <v>201709</v>
+        <v>201601</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J15" s="3">
-        <v>42881</v>
+        <v>42338</v>
       </c>
       <c r="K15" s="3">
-        <v>43005</v>
+        <v>42396</v>
       </c>
       <c r="L15" s="2">
         <v>1</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N15" s="2">
         <v>10000</v>
@@ -1812,43 +2132,43 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G16" s="4">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="H16" s="2">
-        <v>201709</v>
+        <v>201601</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J16" s="3">
-        <v>42887</v>
+        <v>42334</v>
       </c>
       <c r="K16" s="3">
-        <v>43005</v>
+        <v>42396</v>
       </c>
       <c r="L16" s="2">
         <v>1</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N16" s="2">
         <v>10000</v>
@@ -1856,43 +2176,43 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G17" s="4">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="H17" s="2">
-        <v>201709</v>
+        <v>201601</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J17" s="3">
-        <v>42912</v>
+        <v>42334</v>
       </c>
       <c r="K17" s="3">
-        <v>43005</v>
+        <v>42396</v>
       </c>
       <c r="L17" s="2">
         <v>1</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N17" s="2">
         <v>10000</v>
@@ -1900,43 +2220,43 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G18" s="4">
-        <v>2.7</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H18" s="2">
-        <v>201709</v>
+        <v>201601</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J18" s="3">
-        <v>42927</v>
+        <v>42334</v>
       </c>
       <c r="K18" s="3">
-        <v>43005</v>
+        <v>42396</v>
       </c>
       <c r="L18" s="2">
         <v>1</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N18" s="2">
         <v>10000</v>
@@ -1944,43 +2264,43 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G19" s="4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="H19" s="2">
-        <v>201709</v>
+        <v>201601</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J19" s="3">
-        <v>42930</v>
+        <v>42334</v>
       </c>
       <c r="K19" s="3">
-        <v>43005</v>
+        <v>42396</v>
       </c>
       <c r="L19" s="2">
         <v>1</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N19" s="2">
         <v>10000</v>
@@ -1988,43 +2308,43 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G20" s="4">
-        <v>2.8</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="H20" s="2">
-        <v>201709</v>
+        <v>201601</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J20" s="3">
-        <v>42936</v>
+        <v>42334</v>
       </c>
       <c r="K20" s="3">
-        <v>43005</v>
+        <v>42396</v>
       </c>
       <c r="L20" s="2">
         <v>1</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N20" s="2">
         <v>10000</v>
@@ -2032,43 +2352,43 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G21" s="4">
-        <v>2.85</v>
+        <v>2.6</v>
       </c>
       <c r="H21" s="2">
-        <v>201709</v>
+        <v>201601</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J21" s="3">
-        <v>42950</v>
+        <v>42360</v>
       </c>
       <c r="K21" s="3">
-        <v>43005</v>
+        <v>42396</v>
       </c>
       <c r="L21" s="2">
         <v>1</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N21" s="2">
         <v>10000</v>
@@ -2076,43 +2396,43 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G22" s="4">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="H22" s="2">
-        <v>201709</v>
+        <v>201601</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J22" s="3">
-        <v>42976</v>
+        <v>42387</v>
       </c>
       <c r="K22" s="3">
-        <v>43005</v>
+        <v>42396</v>
       </c>
       <c r="L22" s="2">
         <v>1</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N22" s="2">
         <v>10000</v>
@@ -2120,43 +2440,43 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G23" s="4">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="H23" s="2">
-        <v>201709</v>
+        <v>201601</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="J23" s="3">
-        <v>42845</v>
+        <v>42383</v>
       </c>
       <c r="K23" s="3">
-        <v>43005</v>
+        <v>42396</v>
       </c>
       <c r="L23" s="2">
         <v>1</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N23" s="2">
         <v>10000</v>
@@ -2164,13 +2484,13 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>74</v>
@@ -2179,28 +2499,28 @@
         <v>75</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G24" s="4">
-        <v>2.25</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H24" s="2">
-        <v>201709</v>
+        <v>201601</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="J24" s="3">
-        <v>42761</v>
+        <v>42381</v>
       </c>
       <c r="K24" s="3">
-        <v>43005</v>
+        <v>42396</v>
       </c>
       <c r="L24" s="2">
         <v>1</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N24" s="2">
         <v>10000</v>
@@ -2208,13 +2528,13 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>76</v>
@@ -2223,28 +2543,28 @@
         <v>77</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G25" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="H25" s="2">
-        <v>201709</v>
+        <v>201601</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="J25" s="3">
-        <v>42761</v>
+        <v>42377</v>
       </c>
       <c r="K25" s="3">
-        <v>43005</v>
+        <v>42396</v>
       </c>
       <c r="L25" s="2">
         <v>1</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N25" s="2">
         <v>10000</v>
@@ -2252,13 +2572,13 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>78</v>
@@ -2267,28 +2587,28 @@
         <v>79</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G26" s="4">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="H26" s="2">
-        <v>201709</v>
+        <v>201601</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="J26" s="3">
-        <v>42761</v>
+        <v>42377</v>
       </c>
       <c r="K26" s="3">
-        <v>43005</v>
+        <v>42396</v>
       </c>
       <c r="L26" s="2">
         <v>1</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N26" s="2">
         <v>10000</v>
@@ -2296,13 +2616,13 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>80</v>
@@ -2311,28 +2631,28 @@
         <v>81</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G27" s="4">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H27" s="2">
-        <v>201709</v>
+        <v>201601</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="J27" s="3">
-        <v>42761</v>
+        <v>42338</v>
       </c>
       <c r="K27" s="3">
-        <v>43005</v>
+        <v>42396</v>
       </c>
       <c r="L27" s="2">
         <v>1</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N27" s="2">
         <v>10000</v>
@@ -2340,13 +2660,13 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>82</v>
@@ -2355,28 +2675,28 @@
         <v>83</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G28" s="4">
-        <v>2.4500000000000002</v>
+        <v>2.25</v>
       </c>
       <c r="H28" s="2">
-        <v>201709</v>
+        <v>201601</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="J28" s="3">
-        <v>42761</v>
+        <v>42338</v>
       </c>
       <c r="K28" s="3">
-        <v>43005</v>
+        <v>42396</v>
       </c>
       <c r="L28" s="2">
         <v>1</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N28" s="2">
         <v>10000</v>
@@ -2384,13 +2704,13 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>84</v>
@@ -2399,28 +2719,28 @@
         <v>85</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G29" s="4">
-        <v>2.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H29" s="2">
-        <v>201709</v>
+        <v>201601</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="J29" s="3">
-        <v>42780</v>
+        <v>42338</v>
       </c>
       <c r="K29" s="3">
-        <v>43005</v>
+        <v>42396</v>
       </c>
       <c r="L29" s="2">
         <v>1</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N29" s="2">
         <v>10000</v>
@@ -2428,13 +2748,13 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>86</v>
@@ -2443,28 +2763,28 @@
         <v>87</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G30" s="4">
-        <v>2.5499999999999998</v>
+        <v>2.35</v>
       </c>
       <c r="H30" s="2">
-        <v>201709</v>
+        <v>201601</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="J30" s="3">
-        <v>42881</v>
+        <v>42334</v>
       </c>
       <c r="K30" s="3">
-        <v>43005</v>
+        <v>42396</v>
       </c>
       <c r="L30" s="2">
         <v>1</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N30" s="2">
         <v>10000</v>
@@ -2472,13 +2792,13 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>88</v>
@@ -2487,28 +2807,28 @@
         <v>89</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G31" s="4">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H31" s="2">
-        <v>201709</v>
+        <v>201601</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="J31" s="3">
-        <v>42887</v>
+        <v>42334</v>
       </c>
       <c r="K31" s="3">
-        <v>43005</v>
+        <v>42396</v>
       </c>
       <c r="L31" s="2">
         <v>1</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N31" s="2">
         <v>10000</v>
@@ -2516,13 +2836,13 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>90</v>
@@ -2531,28 +2851,28 @@
         <v>91</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G32" s="4">
-        <v>2.65</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H32" s="2">
-        <v>201709</v>
+        <v>201601</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="J32" s="3">
-        <v>42912</v>
+        <v>42334</v>
       </c>
       <c r="K32" s="3">
-        <v>43005</v>
+        <v>42396</v>
       </c>
       <c r="L32" s="2">
         <v>1</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N32" s="2">
         <v>10000</v>
@@ -2560,13 +2880,13 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>92</v>
@@ -2575,28 +2895,28 @@
         <v>93</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G33" s="4">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H33" s="2">
-        <v>201709</v>
+        <v>201601</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="J33" s="3">
-        <v>42927</v>
+        <v>42334</v>
       </c>
       <c r="K33" s="3">
-        <v>43005</v>
+        <v>42396</v>
       </c>
       <c r="L33" s="2">
         <v>1</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N33" s="2">
         <v>10000</v>
@@ -2604,13 +2924,13 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>94</v>
@@ -2619,28 +2939,28 @@
         <v>95</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G34" s="4">
-        <v>2.75</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="H34" s="2">
-        <v>201709</v>
+        <v>201601</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="J34" s="3">
-        <v>42930</v>
+        <v>42334</v>
       </c>
       <c r="K34" s="3">
-        <v>43005</v>
+        <v>42396</v>
       </c>
       <c r="L34" s="2">
         <v>1</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N34" s="2">
         <v>10000</v>
@@ -2648,13 +2968,13 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>96</v>
@@ -2663,28 +2983,28 @@
         <v>97</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G35" s="4">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H35" s="2">
-        <v>201709</v>
+        <v>201601</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="J35" s="3">
-        <v>42936</v>
+        <v>42360</v>
       </c>
       <c r="K35" s="3">
-        <v>43005</v>
+        <v>42396</v>
       </c>
       <c r="L35" s="2">
         <v>1</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N35" s="2">
         <v>10000</v>
@@ -2692,13 +3012,13 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>98</v>
@@ -2707,28 +3027,28 @@
         <v>99</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G36" s="4">
-        <v>2.85</v>
+        <v>1.95</v>
       </c>
       <c r="H36" s="2">
-        <v>201709</v>
+        <v>201602</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="J36" s="3">
-        <v>42950</v>
+        <v>42387</v>
       </c>
       <c r="K36" s="3">
-        <v>43005</v>
+        <v>42424</v>
       </c>
       <c r="L36" s="2">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N36" s="2">
         <v>10000</v>
@@ -2736,13 +3056,13 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>100</v>
@@ -2751,28 +3071,28 @@
         <v>101</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G37" s="4">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H37" s="2">
-        <v>201709</v>
+        <v>201602</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="J37" s="3">
-        <v>42976</v>
+        <v>42383</v>
       </c>
       <c r="K37" s="3">
-        <v>43005</v>
+        <v>42424</v>
       </c>
       <c r="L37" s="2">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N37" s="2">
         <v>10000</v>
@@ -2780,13 +3100,13 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>102</v>
@@ -2795,28 +3115,28 @@
         <v>103</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G38" s="4">
-        <v>2.6</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H38" s="2">
-        <v>201710</v>
+        <v>201602</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J38" s="3">
-        <v>42971</v>
+        <v>42381</v>
       </c>
       <c r="K38" s="3">
-        <v>43033</v>
+        <v>42424</v>
       </c>
       <c r="L38" s="2">
         <v>29</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N38" s="2">
         <v>10000</v>
@@ -2824,13 +3144,13 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>104</v>
@@ -2839,28 +3159,28 @@
         <v>105</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G39" s="4">
-        <v>2.65</v>
+        <v>2.1</v>
       </c>
       <c r="H39" s="2">
-        <v>201710</v>
+        <v>201602</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J39" s="3">
-        <v>42971</v>
+        <v>42377</v>
       </c>
       <c r="K39" s="3">
-        <v>43033</v>
+        <v>42424</v>
       </c>
       <c r="L39" s="2">
         <v>29</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N39" s="2">
         <v>10000</v>
@@ -2868,13 +3188,13 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>106</v>
@@ -2883,28 +3203,28 @@
         <v>107</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G40" s="4">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="H40" s="2">
-        <v>201710</v>
+        <v>201602</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J40" s="3">
-        <v>42971</v>
+        <v>42377</v>
       </c>
       <c r="K40" s="3">
-        <v>43033</v>
+        <v>42424</v>
       </c>
       <c r="L40" s="2">
         <v>29</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N40" s="2">
         <v>10000</v>
@@ -2912,13 +3232,13 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>108</v>
@@ -2927,28 +3247,28 @@
         <v>109</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G41" s="4">
-        <v>2.75</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H41" s="2">
-        <v>201710</v>
+        <v>201602</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J41" s="3">
-        <v>42971</v>
+        <v>42374</v>
       </c>
       <c r="K41" s="3">
-        <v>43033</v>
+        <v>42424</v>
       </c>
       <c r="L41" s="2">
         <v>29</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N41" s="2">
         <v>10000</v>
@@ -2956,13 +3276,13 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>110</v>
@@ -2971,28 +3291,28 @@
         <v>111</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G42" s="4">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="H42" s="2">
-        <v>201710</v>
+        <v>201602</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J42" s="3">
-        <v>42971</v>
+        <v>42374</v>
       </c>
       <c r="K42" s="3">
-        <v>43033</v>
+        <v>42424</v>
       </c>
       <c r="L42" s="2">
         <v>29</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N42" s="2">
         <v>10000</v>
@@ -3000,13 +3320,13 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>112</v>
@@ -3015,28 +3335,28 @@
         <v>113</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G43" s="4">
-        <v>2.85</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H43" s="2">
-        <v>201710</v>
+        <v>201602</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J43" s="3">
-        <v>42975</v>
+        <v>42367</v>
       </c>
       <c r="K43" s="3">
-        <v>43033</v>
+        <v>42424</v>
       </c>
       <c r="L43" s="2">
         <v>29</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N43" s="2">
         <v>10000</v>
@@ -3044,13 +3364,13 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>114</v>
@@ -3059,28 +3379,28 @@
         <v>115</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G44" s="4">
-        <v>2.9</v>
+        <v>2.35</v>
       </c>
       <c r="H44" s="2">
-        <v>201710</v>
+        <v>201602</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J44" s="3">
-        <v>42976</v>
+        <v>42367</v>
       </c>
       <c r="K44" s="3">
-        <v>43033</v>
+        <v>42424</v>
       </c>
       <c r="L44" s="2">
         <v>29</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N44" s="2">
         <v>10000</v>
@@ -3088,13 +3408,13 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>116</v>
@@ -3103,28 +3423,28 @@
         <v>117</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G45" s="4">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H45" s="2">
-        <v>201710</v>
+        <v>201602</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="J45" s="3">
-        <v>42971</v>
+        <v>42362</v>
       </c>
       <c r="K45" s="3">
-        <v>43033</v>
+        <v>42424</v>
       </c>
       <c r="L45" s="2">
         <v>29</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N45" s="2">
         <v>10000</v>
@@ -3132,13 +3452,13 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>118</v>
@@ -3147,28 +3467,28 @@
         <v>119</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G46" s="4">
-        <v>2.65</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H46" s="2">
-        <v>201710</v>
+        <v>201602</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="J46" s="3">
-        <v>42971</v>
+        <v>42362</v>
       </c>
       <c r="K46" s="3">
-        <v>43033</v>
+        <v>42424</v>
       </c>
       <c r="L46" s="2">
         <v>29</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N46" s="2">
         <v>10000</v>
@@ -3176,13 +3496,13 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>120</v>
@@ -3191,28 +3511,28 @@
         <v>121</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G47" s="4">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H47" s="2">
-        <v>201710</v>
+        <v>201602</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="J47" s="3">
-        <v>42971</v>
+        <v>42362</v>
       </c>
       <c r="K47" s="3">
-        <v>43033</v>
+        <v>42424</v>
       </c>
       <c r="L47" s="2">
         <v>29</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N47" s="2">
         <v>10000</v>
@@ -3220,13 +3540,13 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>122</v>
@@ -3235,28 +3555,28 @@
         <v>123</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G48" s="4">
-        <v>2.75</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="H48" s="2">
-        <v>201710</v>
+        <v>201602</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="J48" s="3">
-        <v>42971</v>
+        <v>42362</v>
       </c>
       <c r="K48" s="3">
-        <v>43033</v>
+        <v>42424</v>
       </c>
       <c r="L48" s="2">
         <v>29</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N48" s="2">
         <v>10000</v>
@@ -3264,13 +3584,13 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>124</v>
@@ -3279,28 +3599,28 @@
         <v>125</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G49" s="4">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H49" s="2">
-        <v>201710</v>
+        <v>201602</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="J49" s="3">
-        <v>42971</v>
+        <v>42362</v>
       </c>
       <c r="K49" s="3">
-        <v>43033</v>
+        <v>42424</v>
       </c>
       <c r="L49" s="2">
         <v>29</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N49" s="2">
         <v>10000</v>
@@ -3308,13 +3628,13 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>126</v>
@@ -3323,28 +3643,28 @@
         <v>127</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G50" s="4">
-        <v>2.85</v>
+        <v>1.95</v>
       </c>
       <c r="H50" s="2">
-        <v>201710</v>
+        <v>201602</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="J50" s="3">
-        <v>42975</v>
+        <v>42387</v>
       </c>
       <c r="K50" s="3">
-        <v>43033</v>
+        <v>42424</v>
       </c>
       <c r="L50" s="2">
         <v>29</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N50" s="2">
         <v>10000</v>
@@ -3352,13 +3672,13 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>128</v>
@@ -3367,28 +3687,28 @@
         <v>129</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G51" s="4">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H51" s="2">
-        <v>201710</v>
+        <v>201602</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="J51" s="3">
-        <v>42976</v>
+        <v>42383</v>
       </c>
       <c r="K51" s="3">
-        <v>43033</v>
+        <v>42424</v>
       </c>
       <c r="L51" s="2">
         <v>29</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N51" s="2">
         <v>10000</v>
@@ -3396,13 +3716,13 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>130</v>
@@ -3411,28 +3731,28 @@
         <v>131</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G52" s="4">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H52" s="2">
-        <v>201712</v>
+        <v>201602</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J52" s="3">
-        <v>42860</v>
+        <v>42381</v>
       </c>
       <c r="K52" s="3">
-        <v>43096</v>
+        <v>42424</v>
       </c>
       <c r="L52" s="2">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N52" s="2">
         <v>10000</v>
@@ -3440,13 +3760,13 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>132</v>
@@ -3455,28 +3775,28 @@
         <v>133</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G53" s="4">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="H53" s="2">
-        <v>201712</v>
+        <v>201602</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J53" s="3">
-        <v>42852</v>
+        <v>42377</v>
       </c>
       <c r="K53" s="3">
-        <v>43096</v>
+        <v>42424</v>
       </c>
       <c r="L53" s="2">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N53" s="2">
         <v>10000</v>
@@ -3484,13 +3804,13 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>134</v>
@@ -3499,28 +3819,28 @@
         <v>135</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G54" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.15</v>
       </c>
       <c r="H54" s="2">
-        <v>201712</v>
+        <v>201602</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J54" s="3">
-        <v>42852</v>
+        <v>42377</v>
       </c>
       <c r="K54" s="3">
-        <v>43096</v>
+        <v>42424</v>
       </c>
       <c r="L54" s="2">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N54" s="2">
         <v>10000</v>
@@ -3528,13 +3848,13 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>136</v>
@@ -3543,28 +3863,28 @@
         <v>137</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G55" s="4">
-        <v>2.35</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H55" s="2">
-        <v>201712</v>
+        <v>201602</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J55" s="3">
-        <v>42852</v>
+        <v>42374</v>
       </c>
       <c r="K55" s="3">
-        <v>43096</v>
+        <v>42424</v>
       </c>
       <c r="L55" s="2">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N55" s="2">
         <v>10000</v>
@@ -3572,13 +3892,13 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>138</v>
@@ -3587,28 +3907,28 @@
         <v>139</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G56" s="4">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="H56" s="2">
-        <v>201712</v>
+        <v>201602</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J56" s="3">
-        <v>42852</v>
+        <v>42374</v>
       </c>
       <c r="K56" s="3">
-        <v>43096</v>
+        <v>42424</v>
       </c>
       <c r="L56" s="2">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N56" s="2">
         <v>10000</v>
@@ -3616,13 +3936,13 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>140</v>
@@ -3631,28 +3951,28 @@
         <v>141</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G57" s="4">
-        <v>2.4500000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H57" s="2">
-        <v>201712</v>
+        <v>201602</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J57" s="3">
-        <v>42852</v>
+        <v>42367</v>
       </c>
       <c r="K57" s="3">
-        <v>43096</v>
+        <v>42424</v>
       </c>
       <c r="L57" s="2">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N57" s="2">
         <v>10000</v>
@@ -3660,13 +3980,13 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>142</v>
@@ -3675,28 +3995,28 @@
         <v>143</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G58" s="4">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="H58" s="2">
-        <v>201712</v>
+        <v>201602</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J58" s="3">
-        <v>42872</v>
+        <v>42367</v>
       </c>
       <c r="K58" s="3">
-        <v>43096</v>
+        <v>42424</v>
       </c>
       <c r="L58" s="2">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N58" s="2">
         <v>10000</v>
@@ -3704,13 +4024,13 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>144</v>
@@ -3719,28 +4039,28 @@
         <v>145</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G59" s="4">
-        <v>2.5499999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="H59" s="2">
-        <v>201712</v>
+        <v>201602</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J59" s="3">
-        <v>42881</v>
+        <v>42362</v>
       </c>
       <c r="K59" s="3">
-        <v>43096</v>
+        <v>42424</v>
       </c>
       <c r="L59" s="2">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N59" s="2">
         <v>10000</v>
@@ -3748,13 +4068,13 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>146</v>
@@ -3763,28 +4083,28 @@
         <v>147</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G60" s="4">
-        <v>2.6</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H60" s="2">
-        <v>201712</v>
+        <v>201602</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J60" s="3">
-        <v>42887</v>
+        <v>42362</v>
       </c>
       <c r="K60" s="3">
-        <v>43096</v>
+        <v>42424</v>
       </c>
       <c r="L60" s="2">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N60" s="2">
         <v>10000</v>
@@ -3792,13 +4112,13 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>148</v>
@@ -3807,28 +4127,28 @@
         <v>149</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G61" s="4">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="H61" s="2">
-        <v>201712</v>
+        <v>201602</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J61" s="3">
-        <v>42912</v>
+        <v>42362</v>
       </c>
       <c r="K61" s="3">
-        <v>43096</v>
+        <v>42424</v>
       </c>
       <c r="L61" s="2">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N61" s="2">
         <v>10000</v>
@@ -3836,13 +4156,13 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>150</v>
@@ -3851,28 +4171,28 @@
         <v>151</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G62" s="4">
-        <v>2.7</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="H62" s="2">
-        <v>201712</v>
+        <v>201602</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J62" s="3">
-        <v>42927</v>
+        <v>42362</v>
       </c>
       <c r="K62" s="3">
-        <v>43096</v>
+        <v>42424</v>
       </c>
       <c r="L62" s="2">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N62" s="2">
         <v>10000</v>
@@ -3880,13 +4200,13 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>152</v>
@@ -3895,28 +4215,28 @@
         <v>153</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G63" s="4">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="H63" s="2">
-        <v>201712</v>
+        <v>201602</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J63" s="3">
-        <v>42930</v>
+        <v>42362</v>
       </c>
       <c r="K63" s="3">
-        <v>43096</v>
+        <v>42424</v>
       </c>
       <c r="L63" s="2">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N63" s="2">
         <v>10000</v>
@@ -3924,13 +4244,13 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>154</v>
@@ -3939,28 +4259,28 @@
         <v>155</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G64" s="4">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H64" s="2">
-        <v>201712</v>
+        <v>201603</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J64" s="3">
-        <v>42936</v>
+        <v>42242</v>
       </c>
       <c r="K64" s="3">
-        <v>43096</v>
+        <v>42452</v>
       </c>
       <c r="L64" s="2">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N64" s="2">
         <v>10000</v>
@@ -3968,13 +4288,13 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>156</v>
@@ -3983,28 +4303,28 @@
         <v>157</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G65" s="4">
-        <v>2.85</v>
+        <v>1.85</v>
       </c>
       <c r="H65" s="2">
-        <v>201712</v>
+        <v>201603</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J65" s="3">
-        <v>42950</v>
+        <v>42242</v>
       </c>
       <c r="K65" s="3">
-        <v>43096</v>
+        <v>42452</v>
       </c>
       <c r="L65" s="2">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N65" s="2">
         <v>10000</v>
@@ -4012,13 +4332,13 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>158</v>
@@ -4027,28 +4347,28 @@
         <v>159</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G66" s="4">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H66" s="2">
-        <v>201712</v>
+        <v>201603</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J66" s="3">
-        <v>42976</v>
+        <v>42242</v>
       </c>
       <c r="K66" s="3">
-        <v>43096</v>
+        <v>42452</v>
       </c>
       <c r="L66" s="2">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N66" s="2">
         <v>10000</v>
@@ -4056,13 +4376,13 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>160</v>
@@ -4071,28 +4391,28 @@
         <v>161</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G67" s="4">
-        <v>2.2000000000000002</v>
+        <v>1.95</v>
       </c>
       <c r="H67" s="2">
-        <v>201712</v>
+        <v>201603</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="J67" s="3">
-        <v>42860</v>
+        <v>42241</v>
       </c>
       <c r="K67" s="3">
-        <v>43096</v>
+        <v>42452</v>
       </c>
       <c r="L67" s="2">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N67" s="2">
         <v>10000</v>
@@ -4100,13 +4420,13 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>162</v>
@@ -4115,28 +4435,28 @@
         <v>163</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G68" s="4">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="H68" s="2">
-        <v>201712</v>
+        <v>201603</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="J68" s="3">
-        <v>42852</v>
+        <v>42241</v>
       </c>
       <c r="K68" s="3">
-        <v>43096</v>
+        <v>42452</v>
       </c>
       <c r="L68" s="2">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N68" s="2">
         <v>10000</v>
@@ -4144,13 +4464,13 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>164</v>
@@ -4159,28 +4479,28 @@
         <v>165</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G69" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H69" s="2">
-        <v>201712</v>
+        <v>201603</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="J69" s="3">
-        <v>42852</v>
+        <v>42241</v>
       </c>
       <c r="K69" s="3">
-        <v>43096</v>
+        <v>42452</v>
       </c>
       <c r="L69" s="2">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N69" s="2">
         <v>10000</v>
@@ -4188,13 +4508,13 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>166</v>
@@ -4203,28 +4523,28 @@
         <v>167</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G70" s="4">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="H70" s="2">
-        <v>201712</v>
+        <v>201603</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="J70" s="3">
-        <v>42852</v>
+        <v>42241</v>
       </c>
       <c r="K70" s="3">
-        <v>43096</v>
+        <v>42452</v>
       </c>
       <c r="L70" s="2">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N70" s="2">
         <v>10000</v>
@@ -4232,13 +4552,13 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>168</v>
@@ -4247,28 +4567,28 @@
         <v>169</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G71" s="4">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="H71" s="2">
-        <v>201712</v>
+        <v>201603</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="J71" s="3">
-        <v>42852</v>
+        <v>42240</v>
       </c>
       <c r="K71" s="3">
-        <v>43096</v>
+        <v>42452</v>
       </c>
       <c r="L71" s="2">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N71" s="2">
         <v>10000</v>
@@ -4276,13 +4596,13 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>170</v>
@@ -4291,28 +4611,28 @@
         <v>171</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G72" s="4">
-        <v>2.4500000000000002</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H72" s="2">
-        <v>201712</v>
+        <v>201603</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="J72" s="3">
-        <v>42852</v>
+        <v>42240</v>
       </c>
       <c r="K72" s="3">
-        <v>43096</v>
+        <v>42452</v>
       </c>
       <c r="L72" s="2">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N72" s="2">
         <v>10000</v>
@@ -4320,13 +4640,13 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>172</v>
@@ -4335,28 +4655,28 @@
         <v>173</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G73" s="4">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="H73" s="2">
-        <v>201712</v>
+        <v>201603</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="J73" s="3">
-        <v>42872</v>
+        <v>42237</v>
       </c>
       <c r="K73" s="3">
-        <v>43096</v>
+        <v>42452</v>
       </c>
       <c r="L73" s="2">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N73" s="2">
         <v>10000</v>
@@ -4364,13 +4684,13 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>174</v>
@@ -4379,28 +4699,28 @@
         <v>175</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G74" s="4">
-        <v>2.5499999999999998</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H74" s="2">
-        <v>201712</v>
+        <v>201603</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="J74" s="3">
-        <v>42881</v>
+        <v>42235</v>
       </c>
       <c r="K74" s="3">
-        <v>43096</v>
+        <v>42452</v>
       </c>
       <c r="L74" s="2">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N74" s="2">
         <v>10000</v>
@@ -4408,13 +4728,13 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>176</v>
@@ -4423,28 +4743,28 @@
         <v>177</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G75" s="4">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="H75" s="2">
-        <v>201712</v>
+        <v>201603</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="J75" s="3">
-        <v>42887</v>
+        <v>42216</v>
       </c>
       <c r="K75" s="3">
-        <v>43096</v>
+        <v>42452</v>
       </c>
       <c r="L75" s="2">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N75" s="2">
         <v>10000</v>
@@ -4452,13 +4772,13 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>178</v>
@@ -4467,28 +4787,28 @@
         <v>179</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G76" s="4">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="H76" s="2">
-        <v>201712</v>
+        <v>201603</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="J76" s="3">
-        <v>42912</v>
+        <v>42213</v>
       </c>
       <c r="K76" s="3">
-        <v>43096</v>
+        <v>42452</v>
       </c>
       <c r="L76" s="2">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N76" s="2">
         <v>10000</v>
@@ -4496,13 +4816,13 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>180</v>
@@ -4511,28 +4831,28 @@
         <v>181</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G77" s="4">
-        <v>2.7</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H77" s="2">
-        <v>201712</v>
+        <v>201603</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="J77" s="3">
-        <v>42927</v>
+        <v>42213</v>
       </c>
       <c r="K77" s="3">
-        <v>43096</v>
+        <v>42452</v>
       </c>
       <c r="L77" s="2">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N77" s="2">
         <v>10000</v>
@@ -4540,13 +4860,13 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>182</v>
@@ -4555,28 +4875,28 @@
         <v>183</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G78" s="4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="H78" s="2">
-        <v>201712</v>
+        <v>201603</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="J78" s="3">
-        <v>42930</v>
+        <v>42213</v>
       </c>
       <c r="K78" s="3">
-        <v>43096</v>
+        <v>42452</v>
       </c>
       <c r="L78" s="2">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N78" s="2">
         <v>10000</v>
@@ -4584,13 +4904,13 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>184</v>
@@ -4599,28 +4919,28 @@
         <v>185</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G79" s="4">
-        <v>2.8</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="H79" s="2">
-        <v>201712</v>
+        <v>201603</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="J79" s="3">
-        <v>42936</v>
+        <v>42213</v>
       </c>
       <c r="K79" s="3">
-        <v>43096</v>
+        <v>42452</v>
       </c>
       <c r="L79" s="2">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N79" s="2">
         <v>10000</v>
@@ -4628,13 +4948,13 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>186</v>
@@ -4643,28 +4963,28 @@
         <v>187</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G80" s="4">
-        <v>2.85</v>
+        <v>2.6</v>
       </c>
       <c r="H80" s="2">
-        <v>201712</v>
+        <v>201603</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="J80" s="3">
-        <v>42950</v>
+        <v>42213</v>
       </c>
       <c r="K80" s="3">
-        <v>43096</v>
+        <v>42452</v>
       </c>
       <c r="L80" s="2">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N80" s="2">
         <v>10000</v>
@@ -4672,13 +4992,13 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>188</v>
@@ -4687,28 +5007,28 @@
         <v>189</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G81" s="4">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
       <c r="H81" s="2">
-        <v>201712</v>
+        <v>201603</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="J81" s="3">
-        <v>42976</v>
+        <v>42208</v>
       </c>
       <c r="K81" s="3">
-        <v>43096</v>
+        <v>42452</v>
       </c>
       <c r="L81" s="2">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N81" s="2">
         <v>10000</v>
@@ -4716,13 +5036,13 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>190</v>
@@ -4731,28 +5051,28 @@
         <v>191</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G82" s="4">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H82" s="2">
-        <v>201803</v>
+        <v>201603</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J82" s="3">
-        <v>42961</v>
+        <v>42208</v>
       </c>
       <c r="K82" s="3">
-        <v>43187</v>
+        <v>42452</v>
       </c>
       <c r="L82" s="2">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N82" s="2">
         <v>10000</v>
@@ -4760,13 +5080,13 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>192</v>
@@ -4775,28 +5095,28 @@
         <v>193</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G83" s="4">
-        <v>2.5499999999999998</v>
+        <v>2.75</v>
       </c>
       <c r="H83" s="2">
-        <v>201803</v>
+        <v>201603</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J83" s="3">
-        <v>42954</v>
+        <v>42208</v>
       </c>
       <c r="K83" s="3">
-        <v>43187</v>
+        <v>42452</v>
       </c>
       <c r="L83" s="2">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N83" s="2">
         <v>10000</v>
@@ -4804,13 +5124,13 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>194</v>
@@ -4819,28 +5139,28 @@
         <v>195</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G84" s="4">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H84" s="2">
-        <v>201803</v>
+        <v>201603</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J84" s="3">
-        <v>42943</v>
+        <v>42208</v>
       </c>
       <c r="K84" s="3">
-        <v>43187</v>
+        <v>42452</v>
       </c>
       <c r="L84" s="2">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N84" s="2">
         <v>10000</v>
@@ -4848,13 +5168,13 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>196</v>
@@ -4863,28 +5183,28 @@
         <v>197</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G85" s="4">
-        <v>2.65</v>
+        <v>2.85</v>
       </c>
       <c r="H85" s="2">
-        <v>201803</v>
+        <v>201603</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J85" s="3">
-        <v>42943</v>
+        <v>42208</v>
       </c>
       <c r="K85" s="3">
-        <v>43187</v>
+        <v>42452</v>
       </c>
       <c r="L85" s="2">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N85" s="2">
         <v>10000</v>
@@ -4892,13 +5212,13 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>198</v>
@@ -4907,28 +5227,28 @@
         <v>199</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G86" s="4">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H86" s="2">
-        <v>201803</v>
+        <v>201603</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J86" s="3">
-        <v>42943</v>
+        <v>42209</v>
       </c>
       <c r="K86" s="3">
-        <v>43187</v>
+        <v>42452</v>
       </c>
       <c r="L86" s="2">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N86" s="2">
         <v>10000</v>
@@ -4936,13 +5256,13 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>200</v>
@@ -4951,28 +5271,28 @@
         <v>201</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G87" s="4">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="H87" s="2">
-        <v>201803</v>
+        <v>201603</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J87" s="3">
-        <v>42943</v>
+        <v>42242</v>
       </c>
       <c r="K87" s="3">
-        <v>43187</v>
+        <v>42452</v>
       </c>
       <c r="L87" s="2">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N87" s="2">
         <v>10000</v>
@@ -4980,13 +5300,13 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>202</v>
@@ -4995,28 +5315,28 @@
         <v>203</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G88" s="4">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="H88" s="2">
-        <v>201803</v>
+        <v>201603</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J88" s="3">
-        <v>42943</v>
+        <v>42242</v>
       </c>
       <c r="K88" s="3">
-        <v>43187</v>
+        <v>42452</v>
       </c>
       <c r="L88" s="2">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N88" s="2">
         <v>10000</v>
@@ -5024,13 +5344,13 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>204</v>
@@ -5039,28 +5359,28 @@
         <v>205</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G89" s="4">
-        <v>2.85</v>
+        <v>1.9</v>
       </c>
       <c r="H89" s="2">
-        <v>201803</v>
+        <v>201603</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J89" s="3">
-        <v>42950</v>
+        <v>42242</v>
       </c>
       <c r="K89" s="3">
-        <v>43187</v>
+        <v>42452</v>
       </c>
       <c r="L89" s="2">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N89" s="2">
         <v>10000</v>
@@ -5068,13 +5388,13 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>206</v>
@@ -5083,28 +5403,28 @@
         <v>207</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G90" s="4">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="H90" s="2">
-        <v>201803</v>
+        <v>201603</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J90" s="3">
-        <v>42976</v>
+        <v>42241</v>
       </c>
       <c r="K90" s="3">
-        <v>43187</v>
+        <v>42452</v>
       </c>
       <c r="L90" s="2">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N90" s="2">
         <v>10000</v>
@@ -5112,13 +5432,13 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>208</v>
@@ -5127,28 +5447,28 @@
         <v>209</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G91" s="4">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H91" s="2">
-        <v>201803</v>
+        <v>201603</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="J91" s="3">
-        <v>42961</v>
+        <v>42241</v>
       </c>
       <c r="K91" s="3">
-        <v>43187</v>
+        <v>42452</v>
       </c>
       <c r="L91" s="2">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N91" s="2">
         <v>10000</v>
@@ -5156,13 +5476,13 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>210</v>
@@ -5171,28 +5491,28 @@
         <v>211</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G92" s="4">
-        <v>2.5499999999999998</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H92" s="2">
-        <v>201803</v>
+        <v>201603</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="J92" s="3">
-        <v>42954</v>
+        <v>42241</v>
       </c>
       <c r="K92" s="3">
-        <v>43187</v>
+        <v>42452</v>
       </c>
       <c r="L92" s="2">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N92" s="2">
         <v>10000</v>
@@ -5200,13 +5520,13 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>212</v>
@@ -5215,28 +5535,28 @@
         <v>213</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G93" s="4">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H93" s="2">
-        <v>201803</v>
+        <v>201603</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="J93" s="3">
-        <v>42943</v>
+        <v>42241</v>
       </c>
       <c r="K93" s="3">
-        <v>43187</v>
+        <v>42452</v>
       </c>
       <c r="L93" s="2">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N93" s="2">
         <v>10000</v>
@@ -5244,13 +5564,13 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>214</v>
@@ -5259,28 +5579,28 @@
         <v>215</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G94" s="4">
-        <v>2.65</v>
+        <v>2.15</v>
       </c>
       <c r="H94" s="2">
-        <v>201803</v>
+        <v>201603</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="J94" s="3">
-        <v>42943</v>
+        <v>42240</v>
       </c>
       <c r="K94" s="3">
-        <v>43187</v>
+        <v>42452</v>
       </c>
       <c r="L94" s="2">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N94" s="2">
         <v>10000</v>
@@ -5288,13 +5608,13 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>216</v>
@@ -5303,28 +5623,28 @@
         <v>217</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G95" s="4">
-        <v>2.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H95" s="2">
-        <v>201803</v>
+        <v>201603</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="J95" s="3">
-        <v>42943</v>
+        <v>42240</v>
       </c>
       <c r="K95" s="3">
-        <v>43187</v>
+        <v>42452</v>
       </c>
       <c r="L95" s="2">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N95" s="2">
         <v>10000</v>
@@ -5332,13 +5652,13 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>218</v>
@@ -5347,28 +5667,28 @@
         <v>219</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G96" s="4">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="H96" s="2">
-        <v>201803</v>
+        <v>201603</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="J96" s="3">
-        <v>42943</v>
+        <v>42237</v>
       </c>
       <c r="K96" s="3">
-        <v>43187</v>
+        <v>42452</v>
       </c>
       <c r="L96" s="2">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N96" s="2">
         <v>10000</v>
@@ -5376,13 +5696,13 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>220</v>
@@ -5391,28 +5711,28 @@
         <v>221</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G97" s="4">
-        <v>2.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H97" s="2">
-        <v>201803</v>
+        <v>201603</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="J97" s="3">
-        <v>42943</v>
+        <v>42235</v>
       </c>
       <c r="K97" s="3">
-        <v>43187</v>
+        <v>42452</v>
       </c>
       <c r="L97" s="2">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N97" s="2">
         <v>10000</v>
@@ -5420,13 +5740,13 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>222</v>
@@ -5435,28 +5755,28 @@
         <v>223</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G98" s="4">
-        <v>2.85</v>
+        <v>2.35</v>
       </c>
       <c r="H98" s="2">
-        <v>201803</v>
+        <v>201603</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="J98" s="3">
-        <v>42950</v>
+        <v>42216</v>
       </c>
       <c r="K98" s="3">
-        <v>43187</v>
+        <v>42452</v>
       </c>
       <c r="L98" s="2">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N98" s="2">
         <v>10000</v>
@@ -5464,13 +5784,13 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>224</v>
@@ -5479,30 +5799,1790 @@
         <v>225</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G99" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="H99" s="2">
+        <v>201603</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J99" s="3">
+        <v>42213</v>
+      </c>
+      <c r="K99" s="3">
+        <v>42452</v>
+      </c>
+      <c r="L99" s="2">
+        <v>57</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N99" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A100" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G100" s="4">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H100" s="2">
+        <v>201603</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J100" s="3">
+        <v>42213</v>
+      </c>
+      <c r="K100" s="3">
+        <v>42452</v>
+      </c>
+      <c r="L100" s="2">
+        <v>57</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N100" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A101" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G101" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="H101" s="2">
+        <v>201603</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J101" s="3">
+        <v>42213</v>
+      </c>
+      <c r="K101" s="3">
+        <v>42452</v>
+      </c>
+      <c r="L101" s="2">
+        <v>57</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N101" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A102" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G102" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H102" s="2">
+        <v>201603</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J102" s="3">
+        <v>42213</v>
+      </c>
+      <c r="K102" s="3">
+        <v>42452</v>
+      </c>
+      <c r="L102" s="2">
+        <v>57</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N102" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G103" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="H103" s="2">
+        <v>201603</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J103" s="3">
+        <v>42213</v>
+      </c>
+      <c r="K103" s="3">
+        <v>42452</v>
+      </c>
+      <c r="L103" s="2">
+        <v>57</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N103" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A104" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G104" s="4">
+        <v>2.65</v>
+      </c>
+      <c r="H104" s="2">
+        <v>201603</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J104" s="3">
+        <v>42208</v>
+      </c>
+      <c r="K104" s="3">
+        <v>42452</v>
+      </c>
+      <c r="L104" s="2">
+        <v>57</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N104" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A105" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G105" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="H105" s="2">
+        <v>201603</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J105" s="3">
+        <v>42208</v>
+      </c>
+      <c r="K105" s="3">
+        <v>42452</v>
+      </c>
+      <c r="L105" s="2">
+        <v>57</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N105" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A106" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G106" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="H106" s="2">
+        <v>201603</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J106" s="3">
+        <v>42208</v>
+      </c>
+      <c r="K106" s="3">
+        <v>42452</v>
+      </c>
+      <c r="L106" s="2">
+        <v>57</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N106" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A107" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G107" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="H107" s="2">
+        <v>201603</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J107" s="3">
+        <v>42208</v>
+      </c>
+      <c r="K107" s="3">
+        <v>42452</v>
+      </c>
+      <c r="L107" s="2">
+        <v>57</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N107" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G108" s="4">
+        <v>2.85</v>
+      </c>
+      <c r="H108" s="2">
+        <v>201603</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J108" s="3">
+        <v>42208</v>
+      </c>
+      <c r="K108" s="3">
+        <v>42452</v>
+      </c>
+      <c r="L108" s="2">
+        <v>57</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N108" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A109" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G109" s="4">
         <v>2.9</v>
       </c>
-      <c r="H99" s="2">
-        <v>201803</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J99" s="3">
-        <v>42976</v>
-      </c>
-      <c r="K99" s="3">
-        <v>43187</v>
-      </c>
-      <c r="L99" s="2">
-        <v>183</v>
-      </c>
-      <c r="M99" s="2" t="s">
+      <c r="H109" s="2">
+        <v>201603</v>
+      </c>
+      <c r="I109" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N99" s="2">
+      <c r="J109" s="3">
+        <v>42209</v>
+      </c>
+      <c r="K109" s="3">
+        <v>42452</v>
+      </c>
+      <c r="L109" s="2">
+        <v>57</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N109" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A110" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G110" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H110" s="2">
+        <v>201606</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J110" s="3">
+        <v>42387</v>
+      </c>
+      <c r="K110" s="3">
+        <v>42543</v>
+      </c>
+      <c r="L110" s="2">
+        <v>148</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N110" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A111" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G111" s="4">
+        <v>2</v>
+      </c>
+      <c r="H111" s="2">
+        <v>201606</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J111" s="3">
+        <v>42383</v>
+      </c>
+      <c r="K111" s="3">
+        <v>42543</v>
+      </c>
+      <c r="L111" s="2">
+        <v>148</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N111" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A112" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G112" s="4">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="H112" s="2">
+        <v>201606</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J112" s="3">
+        <v>42381</v>
+      </c>
+      <c r="K112" s="3">
+        <v>42543</v>
+      </c>
+      <c r="L112" s="2">
+        <v>148</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N112" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A113" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G113" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="H113" s="2">
+        <v>201606</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J113" s="3">
+        <v>42377</v>
+      </c>
+      <c r="K113" s="3">
+        <v>42543</v>
+      </c>
+      <c r="L113" s="2">
+        <v>148</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N113" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A114" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G114" s="4">
+        <v>2.15</v>
+      </c>
+      <c r="H114" s="2">
+        <v>201606</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J114" s="3">
+        <v>42312</v>
+      </c>
+      <c r="K114" s="3">
+        <v>42543</v>
+      </c>
+      <c r="L114" s="2">
+        <v>148</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N114" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A115" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G115" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H115" s="2">
+        <v>201606</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J115" s="3">
+        <v>42306</v>
+      </c>
+      <c r="K115" s="3">
+        <v>42543</v>
+      </c>
+      <c r="L115" s="2">
+        <v>148</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N115" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A116" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G116" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="H116" s="2">
+        <v>201606</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J116" s="3">
+        <v>42306</v>
+      </c>
+      <c r="K116" s="3">
+        <v>42543</v>
+      </c>
+      <c r="L116" s="2">
+        <v>148</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N116" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A117" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G117" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H117" s="2">
+        <v>201606</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J117" s="3">
+        <v>42306</v>
+      </c>
+      <c r="K117" s="3">
+        <v>42543</v>
+      </c>
+      <c r="L117" s="2">
+        <v>148</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N117" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A118" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G118" s="4">
+        <v>2.35</v>
+      </c>
+      <c r="H118" s="2">
+        <v>201606</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J118" s="3">
+        <v>42306</v>
+      </c>
+      <c r="K118" s="3">
+        <v>42543</v>
+      </c>
+      <c r="L118" s="2">
+        <v>148</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N118" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G119" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="H119" s="2">
+        <v>201606</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J119" s="3">
+        <v>42306</v>
+      </c>
+      <c r="K119" s="3">
+        <v>42543</v>
+      </c>
+      <c r="L119" s="2">
+        <v>148</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N119" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A120" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G120" s="4">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H120" s="2">
+        <v>201606</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J120" s="3">
+        <v>42313</v>
+      </c>
+      <c r="K120" s="3">
+        <v>42543</v>
+      </c>
+      <c r="L120" s="2">
+        <v>148</v>
+      </c>
+      <c r="M120" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N120" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A121" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G121" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="H121" s="2">
+        <v>201606</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J121" s="3">
+        <v>42313</v>
+      </c>
+      <c r="K121" s="3">
+        <v>42543</v>
+      </c>
+      <c r="L121" s="2">
+        <v>148</v>
+      </c>
+      <c r="M121" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N121" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A122" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G122" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H122" s="2">
+        <v>201606</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J122" s="3">
+        <v>42314</v>
+      </c>
+      <c r="K122" s="3">
+        <v>42543</v>
+      </c>
+      <c r="L122" s="2">
+        <v>148</v>
+      </c>
+      <c r="M122" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N122" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G123" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="H123" s="2">
+        <v>201606</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J123" s="3">
+        <v>42317</v>
+      </c>
+      <c r="K123" s="3">
+        <v>42543</v>
+      </c>
+      <c r="L123" s="2">
+        <v>148</v>
+      </c>
+      <c r="M123" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N123" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G124" s="4">
+        <v>2.65</v>
+      </c>
+      <c r="H124" s="2">
+        <v>201606</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J124" s="3">
+        <v>42318</v>
+      </c>
+      <c r="K124" s="3">
+        <v>42543</v>
+      </c>
+      <c r="L124" s="2">
+        <v>148</v>
+      </c>
+      <c r="M124" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N124" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G125" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H125" s="2">
+        <v>201606</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J125" s="3">
+        <v>42387</v>
+      </c>
+      <c r="K125" s="3">
+        <v>42543</v>
+      </c>
+      <c r="L125" s="2">
+        <v>148</v>
+      </c>
+      <c r="M125" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N125" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A126" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G126" s="4">
+        <v>2</v>
+      </c>
+      <c r="H126" s="2">
+        <v>201606</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J126" s="3">
+        <v>42383</v>
+      </c>
+      <c r="K126" s="3">
+        <v>42543</v>
+      </c>
+      <c r="L126" s="2">
+        <v>148</v>
+      </c>
+      <c r="M126" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N126" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A127" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G127" s="4">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="H127" s="2">
+        <v>201606</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J127" s="3">
+        <v>42381</v>
+      </c>
+      <c r="K127" s="3">
+        <v>42543</v>
+      </c>
+      <c r="L127" s="2">
+        <v>148</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N127" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A128" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G128" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="H128" s="2">
+        <v>201606</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J128" s="3">
+        <v>42377</v>
+      </c>
+      <c r="K128" s="3">
+        <v>42543</v>
+      </c>
+      <c r="L128" s="2">
+        <v>148</v>
+      </c>
+      <c r="M128" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N128" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A129" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G129" s="4">
+        <v>2.15</v>
+      </c>
+      <c r="H129" s="2">
+        <v>201606</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J129" s="3">
+        <v>42312</v>
+      </c>
+      <c r="K129" s="3">
+        <v>42543</v>
+      </c>
+      <c r="L129" s="2">
+        <v>148</v>
+      </c>
+      <c r="M129" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N129" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A130" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G130" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H130" s="2">
+        <v>201606</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J130" s="3">
+        <v>42306</v>
+      </c>
+      <c r="K130" s="3">
+        <v>42543</v>
+      </c>
+      <c r="L130" s="2">
+        <v>148</v>
+      </c>
+      <c r="M130" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N130" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A131" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G131" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="H131" s="2">
+        <v>201606</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J131" s="3">
+        <v>42306</v>
+      </c>
+      <c r="K131" s="3">
+        <v>42543</v>
+      </c>
+      <c r="L131" s="2">
+        <v>148</v>
+      </c>
+      <c r="M131" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N131" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A132" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G132" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H132" s="2">
+        <v>201606</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J132" s="3">
+        <v>42306</v>
+      </c>
+      <c r="K132" s="3">
+        <v>42543</v>
+      </c>
+      <c r="L132" s="2">
+        <v>148</v>
+      </c>
+      <c r="M132" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N132" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A133" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G133" s="4">
+        <v>2.35</v>
+      </c>
+      <c r="H133" s="2">
+        <v>201606</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J133" s="3">
+        <v>42306</v>
+      </c>
+      <c r="K133" s="3">
+        <v>42543</v>
+      </c>
+      <c r="L133" s="2">
+        <v>148</v>
+      </c>
+      <c r="M133" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N133" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A134" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G134" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="H134" s="2">
+        <v>201606</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J134" s="3">
+        <v>42306</v>
+      </c>
+      <c r="K134" s="3">
+        <v>42543</v>
+      </c>
+      <c r="L134" s="2">
+        <v>148</v>
+      </c>
+      <c r="M134" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N134" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A135" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G135" s="4">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H135" s="2">
+        <v>201606</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J135" s="3">
+        <v>42313</v>
+      </c>
+      <c r="K135" s="3">
+        <v>42543</v>
+      </c>
+      <c r="L135" s="2">
+        <v>148</v>
+      </c>
+      <c r="M135" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N135" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A136" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G136" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="H136" s="2">
+        <v>201606</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J136" s="3">
+        <v>42313</v>
+      </c>
+      <c r="K136" s="3">
+        <v>42543</v>
+      </c>
+      <c r="L136" s="2">
+        <v>148</v>
+      </c>
+      <c r="M136" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N136" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A137" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G137" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H137" s="2">
+        <v>201606</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J137" s="3">
+        <v>42314</v>
+      </c>
+      <c r="K137" s="3">
+        <v>42543</v>
+      </c>
+      <c r="L137" s="2">
+        <v>148</v>
+      </c>
+      <c r="M137" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N137" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A138" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G138" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="H138" s="2">
+        <v>201606</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J138" s="3">
+        <v>42317</v>
+      </c>
+      <c r="K138" s="3">
+        <v>42543</v>
+      </c>
+      <c r="L138" s="2">
+        <v>148</v>
+      </c>
+      <c r="M138" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N138" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A139" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G139" s="4">
+        <v>2.65</v>
+      </c>
+      <c r="H139" s="2">
+        <v>201606</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J139" s="3">
+        <v>42318</v>
+      </c>
+      <c r="K139" s="3">
+        <v>42543</v>
+      </c>
+      <c r="L139" s="2">
+        <v>148</v>
+      </c>
+      <c r="M139" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N139" s="2">
         <v>10000</v>
       </c>
     </row>
